--- a/src/main/resources/excel/positionPiece.xlsx
+++ b/src/main/resources/excel/positionPiece.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A21DCD8-8ABB-4690-B69A-9AEC2C5DABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0989A4B-2B40-46D7-B74D-61315AF7D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1740" windowWidth="18360" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>岗位名称</t>
   </si>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>计件条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,22 +363,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
